--- a/database_messe_orizzontale_styled.xlsx
+++ b/database_messe_orizzontale_styled.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>2024</v>
@@ -583,16 +583,16 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>31</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
@@ -612,32 +612,32 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2024</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>fra Giacomo Rotunno</t>
+          <t>Fra Alberto Dos Santos</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2024</v>
@@ -669,29 +669,29 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>fra Giacomo Rotunno</t>
+          <t>Ospite</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2024</v>
@@ -714,39 +714,174 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
+          <t>fra Gabriele Giobbi</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
           <t>fra Giacomo Rotunno</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
+      <c r="E6" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>fra Giacomo Rotunno</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>fra Giacomo Rotunno</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M5"/>
+  <autoFilter ref="A1:M8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
